--- a/data/Raspberries Net Production in Chile.xlsx
+++ b/data/Raspberries Net Production in Chile.xlsx
@@ -490,8 +490,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -759,7 +759,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B4 A6:B10 A5 A12:B36 A11" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:B4 A6:B7 A5 A12:B36 A11 A9:B10 A8" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>